--- a/Code/Results/Cases/Case_3_134/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_134/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.007170795655079</v>
+        <v>1.032923005835927</v>
       </c>
       <c r="D2">
-        <v>1.025110351320956</v>
+        <v>1.040505655009929</v>
       </c>
       <c r="E2">
-        <v>1.012632072970981</v>
+        <v>1.032304413604033</v>
       </c>
       <c r="F2">
-        <v>1.025845289001308</v>
+        <v>1.049205897372537</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044606900344468</v>
+        <v>1.037130258665913</v>
       </c>
       <c r="J2">
-        <v>1.029139124569379</v>
+        <v>1.038050560673331</v>
       </c>
       <c r="K2">
-        <v>1.036230601453991</v>
+        <v>1.043287811949982</v>
       </c>
       <c r="L2">
-        <v>1.023918183999425</v>
+        <v>1.035110029980152</v>
       </c>
       <c r="M2">
-        <v>1.03695592801318</v>
+        <v>1.05196360234141</v>
       </c>
       <c r="N2">
-        <v>1.030600620170177</v>
+        <v>1.03952471153555</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.011089878969328</v>
+        <v>1.033758375452343</v>
       </c>
       <c r="D3">
-        <v>1.028080837988052</v>
+        <v>1.041166811567473</v>
       </c>
       <c r="E3">
-        <v>1.015725383392062</v>
+        <v>1.03301145641942</v>
       </c>
       <c r="F3">
-        <v>1.02972023386858</v>
+        <v>1.050099456979084</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045683009149162</v>
+        <v>1.037314973998913</v>
       </c>
       <c r="J3">
-        <v>1.031282721300092</v>
+        <v>1.038529007560387</v>
       </c>
       <c r="K3">
-        <v>1.038366597154222</v>
+        <v>1.043759798486559</v>
       </c>
       <c r="L3">
-        <v>1.026160932425405</v>
+        <v>1.035626089392669</v>
       </c>
       <c r="M3">
-        <v>1.039986452889839</v>
+        <v>1.052669151238456</v>
       </c>
       <c r="N3">
-        <v>1.03274726105412</v>
+        <v>1.040003837872065</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.01357954357075</v>
+        <v>1.034299558342161</v>
       </c>
       <c r="D4">
-        <v>1.029971057832326</v>
+        <v>1.041595200698994</v>
       </c>
       <c r="E4">
-        <v>1.017696212915994</v>
+        <v>1.033469892948289</v>
       </c>
       <c r="F4">
-        <v>1.032187638258968</v>
+        <v>1.050678777134007</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046358568606885</v>
+        <v>1.037433622975956</v>
       </c>
       <c r="J4">
-        <v>1.032642148353882</v>
+        <v>1.038838576393823</v>
       </c>
       <c r="K4">
-        <v>1.039720730204008</v>
+        <v>1.04406509757265</v>
       </c>
       <c r="L4">
-        <v>1.027585650595824</v>
+        <v>1.03596027291138</v>
       </c>
       <c r="M4">
-        <v>1.041912508095623</v>
+        <v>1.053126178818025</v>
       </c>
       <c r="N4">
-        <v>1.034108618650254</v>
+        <v>1.040313846328752</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.014615468921793</v>
+        <v>1.034527223911973</v>
       </c>
       <c r="D5">
-        <v>1.030758280878686</v>
+        <v>1.041775431780621</v>
       </c>
       <c r="E5">
-        <v>1.018517601043625</v>
+        <v>1.033662841115578</v>
       </c>
       <c r="F5">
-        <v>1.033215664489343</v>
+        <v>1.050922591310489</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046637698677408</v>
+        <v>1.037483293026659</v>
       </c>
       <c r="J5">
-        <v>1.033207206864163</v>
+        <v>1.038968713498941</v>
       </c>
       <c r="K5">
-        <v>1.040283469293911</v>
+        <v>1.044193418217483</v>
       </c>
       <c r="L5">
-        <v>1.028178426950328</v>
+        <v>1.036100824204312</v>
       </c>
       <c r="M5">
-        <v>1.042714098277163</v>
+        <v>1.053318428937666</v>
       </c>
       <c r="N5">
-        <v>1.034674479608433</v>
+        <v>1.040444168243487</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.014788785809229</v>
+        <v>1.034565458845671</v>
       </c>
       <c r="D6">
-        <v>1.030890029545763</v>
+        <v>1.04180570131338</v>
       </c>
       <c r="E6">
-        <v>1.018655102556314</v>
+        <v>1.033695250895382</v>
       </c>
       <c r="F6">
-        <v>1.033387739259475</v>
+        <v>1.050963544442911</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046684282611306</v>
+        <v>1.037491620513276</v>
       </c>
       <c r="J6">
-        <v>1.033301709524824</v>
+        <v>1.038990563724829</v>
       </c>
       <c r="K6">
-        <v>1.040377576902682</v>
+        <v>1.044214962192209</v>
       </c>
       <c r="L6">
-        <v>1.028277599309675</v>
+        <v>1.036124426895476</v>
       </c>
       <c r="M6">
-        <v>1.042848218974335</v>
+        <v>1.053350715317075</v>
       </c>
       <c r="N6">
-        <v>1.034769116473711</v>
+        <v>1.040466049499202</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.013593427373956</v>
+        <v>1.03430259982431</v>
       </c>
       <c r="D7">
-        <v>1.029981605652108</v>
+        <v>1.041597608422205</v>
       </c>
       <c r="E7">
-        <v>1.017707216157031</v>
+        <v>1.033472470263262</v>
       </c>
       <c r="F7">
-        <v>1.032201410843687</v>
+        <v>1.050682033940361</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046362317390837</v>
+        <v>1.037434287495544</v>
       </c>
       <c r="J7">
-        <v>1.032649723797696</v>
+        <v>1.038840315315892</v>
       </c>
       <c r="K7">
-        <v>1.03972827502922</v>
+        <v>1.044066812307455</v>
       </c>
       <c r="L7">
-        <v>1.027593595350363</v>
+        <v>1.035962150728456</v>
       </c>
       <c r="M7">
-        <v>1.041923250602529</v>
+        <v>1.053128747220874</v>
       </c>
       <c r="N7">
-        <v>1.034116204852068</v>
+        <v>1.040315587720291</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.008505053651688</v>
+        <v>1.033205188816147</v>
       </c>
       <c r="D8">
-        <v>1.026120970659983</v>
+        <v>1.040728975514282</v>
       </c>
       <c r="E8">
-        <v>1.013683969421002</v>
+        <v>1.032543167859547</v>
       </c>
       <c r="F8">
-        <v>1.027163295156884</v>
+        <v>1.049507645457044</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04497493149763</v>
+        <v>1.037192864666845</v>
       </c>
       <c r="J8">
-        <v>1.029869386459554</v>
+        <v>1.038212257073823</v>
       </c>
       <c r="K8">
-        <v>1.036958369903264</v>
+        <v>1.043447343546072</v>
       </c>
       <c r="L8">
-        <v>1.024681718817213</v>
+        <v>1.035284380317929</v>
       </c>
       <c r="M8">
-        <v>1.037987475899705</v>
+        <v>1.052201943392514</v>
       </c>
       <c r="N8">
-        <v>1.031331919115996</v>
+        <v>1.039686637563479</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9991684198983449</v>
+        <v>1.031276406169549</v>
       </c>
       <c r="D9">
-        <v>1.019064086968743</v>
+        <v>1.039202827242327</v>
       </c>
       <c r="E9">
-        <v>1.006348993808525</v>
+        <v>1.030912840235898</v>
       </c>
       <c r="F9">
-        <v>1.017965834111958</v>
+        <v>1.047446941243915</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.042366802696649</v>
+        <v>1.036760782320044</v>
       </c>
       <c r="J9">
-        <v>1.024750577615945</v>
+        <v>1.037105453497297</v>
       </c>
       <c r="K9">
-        <v>1.031855253535457</v>
+        <v>1.042354992262529</v>
       </c>
       <c r="L9">
-        <v>1.019339896072864</v>
+        <v>1.034092102778116</v>
       </c>
       <c r="M9">
-        <v>1.03077400111908</v>
+        <v>1.05057262428407</v>
       </c>
       <c r="N9">
-        <v>1.026205840976693</v>
+        <v>1.038578262198921</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9926713439688833</v>
+        <v>1.029994006856443</v>
       </c>
       <c r="D10">
-        <v>1.014174424581213</v>
+        <v>1.03818852128558</v>
       </c>
       <c r="E10">
-        <v>1.001279276139879</v>
+        <v>1.029830918467643</v>
       </c>
       <c r="F10">
-        <v>1.011599105123744</v>
+        <v>1.046079113820194</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.040511687479488</v>
+        <v>1.03646828817839</v>
       </c>
       <c r="J10">
-        <v>1.02117877790999</v>
+        <v>1.036367602216783</v>
       </c>
       <c r="K10">
-        <v>1.028292386210107</v>
+        <v>1.041626318711643</v>
       </c>
       <c r="L10">
-        <v>1.015625471212318</v>
+        <v>1.033298704219001</v>
       </c>
       <c r="M10">
-        <v>1.025762045316359</v>
+        <v>1.049489083248912</v>
       </c>
       <c r="N10">
-        <v>1.022628968905465</v>
+        <v>1.037839363084956</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9897877088597623</v>
+        <v>1.029439553845574</v>
       </c>
       <c r="D11">
-        <v>1.01200984444503</v>
+        <v>1.037750079261569</v>
       </c>
       <c r="E11">
-        <v>0.9990379170230729</v>
+        <v>1.029363634411482</v>
       </c>
       <c r="F11">
-        <v>1.008781686035513</v>
+        <v>1.045488270718632</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.039679245893384</v>
+        <v>1.036340590818621</v>
       </c>
       <c r="J11">
-        <v>1.019591590001887</v>
+        <v>1.036048124442817</v>
       </c>
       <c r="K11">
-        <v>1.026708771870364</v>
+        <v>1.041310707083756</v>
       </c>
       <c r="L11">
-        <v>1.013977999655215</v>
+        <v>1.032955515699087</v>
       </c>
       <c r="M11">
-        <v>1.023539871297162</v>
+        <v>1.049020552435653</v>
       </c>
       <c r="N11">
-        <v>1.02103952700848</v>
+        <v>1.037519431615907</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9887055130036323</v>
+        <v>1.029233732297491</v>
       </c>
       <c r="D12">
-        <v>1.011198404492371</v>
+        <v>1.037587338221161</v>
       </c>
       <c r="E12">
-        <v>0.9981981290798282</v>
+        <v>1.029190245725779</v>
       </c>
       <c r="F12">
-        <v>1.007725634426284</v>
+        <v>1.045269022847341</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.039365516735132</v>
+        <v>1.036293001956368</v>
       </c>
       <c r="J12">
-        <v>1.018995688794431</v>
+        <v>1.035929459948441</v>
       </c>
       <c r="K12">
-        <v>1.026114160193235</v>
+        <v>1.041193462483106</v>
       </c>
       <c r="L12">
-        <v>1.013359931703007</v>
+        <v>1.032828095416812</v>
       </c>
       <c r="M12">
-        <v>1.022706305263086</v>
+        <v>1.048846618497642</v>
       </c>
       <c r="N12">
-        <v>1.020442779552958</v>
+        <v>1.037400598604337</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9889381579337639</v>
+        <v>1.029277875945509</v>
       </c>
       <c r="D13">
-        <v>1.011372801968188</v>
+        <v>1.037622241455547</v>
       </c>
       <c r="E13">
-        <v>0.9983785996685609</v>
+        <v>1.029227429948159</v>
       </c>
       <c r="F13">
-        <v>1.007952599893467</v>
+        <v>1.045316042383575</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.03943301975959</v>
+        <v>1.036303216994122</v>
       </c>
       <c r="J13">
-        <v>1.019123803155515</v>
+        <v>1.035954913694104</v>
       </c>
       <c r="K13">
-        <v>1.026241999551019</v>
+        <v>1.041218612387583</v>
       </c>
       <c r="L13">
-        <v>1.013492790645234</v>
+        <v>1.032855424979092</v>
       </c>
       <c r="M13">
-        <v>1.02288548263955</v>
+        <v>1.04888392339887</v>
       </c>
       <c r="N13">
-        <v>1.02057107585113</v>
+        <v>1.037426088497239</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9896984834371065</v>
+        <v>1.029422537972234</v>
       </c>
       <c r="D14">
-        <v>1.011942923746583</v>
+        <v>1.037736624662741</v>
       </c>
       <c r="E14">
-        <v>0.9989686496216964</v>
+        <v>1.029349298337047</v>
       </c>
       <c r="F14">
-        <v>1.00869458962749</v>
+        <v>1.045470143171726</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.039653406065426</v>
+        <v>1.036336660294455</v>
       </c>
       <c r="J14">
-        <v>1.019542463653808</v>
+        <v>1.036038315514345</v>
       </c>
       <c r="K14">
-        <v>1.026659752848907</v>
+        <v>1.041301015853666</v>
       </c>
       <c r="L14">
-        <v>1.013927036377653</v>
+        <v>1.032944981964437</v>
       </c>
       <c r="M14">
-        <v>1.023471136822615</v>
+        <v>1.049006172967383</v>
       </c>
       <c r="N14">
-        <v>1.020990330895351</v>
+        <v>1.037509608757632</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9901654602325406</v>
+        <v>1.029511685897351</v>
       </c>
       <c r="D15">
-        <v>1.012293202041835</v>
+        <v>1.037807115336602</v>
       </c>
       <c r="E15">
-        <v>0.9993312287839832</v>
+        <v>1.029424409568688</v>
       </c>
       <c r="F15">
-        <v>1.009150476862072</v>
+        <v>1.045565118640703</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.039788589585191</v>
+        <v>1.036357245114822</v>
       </c>
       <c r="J15">
-        <v>1.019799565090578</v>
+        <v>1.03608970266661</v>
       </c>
       <c r="K15">
-        <v>1.026916290512359</v>
+        <v>1.041351785746192</v>
       </c>
       <c r="L15">
-        <v>1.014193770366032</v>
+        <v>1.033000168336744</v>
       </c>
       <c r="M15">
-        <v>1.023830886878142</v>
+        <v>1.049081508165199</v>
       </c>
       <c r="N15">
-        <v>1.021247797445652</v>
+        <v>1.037561068885547</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9928611957166372</v>
+        <v>1.03003082179508</v>
       </c>
       <c r="D16">
-        <v>1.014317057623618</v>
+        <v>1.038217635386422</v>
       </c>
       <c r="E16">
-        <v>1.001427029145836</v>
+        <v>1.029861955911294</v>
       </c>
       <c r="F16">
-        <v>1.011784774979188</v>
+        <v>1.046118356534634</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.040566307520614</v>
+        <v>1.036476741063878</v>
       </c>
       <c r="J16">
-        <v>1.021283238211789</v>
+        <v>1.03638880536442</v>
       </c>
       <c r="K16">
-        <v>1.028396603677799</v>
+        <v>1.041647263006705</v>
       </c>
       <c r="L16">
-        <v>1.015733963714682</v>
+        <v>1.033321488177851</v>
       </c>
       <c r="M16">
-        <v>1.02590839989194</v>
+        <v>1.049520191925006</v>
       </c>
       <c r="N16">
-        <v>1.022733577552874</v>
+        <v>1.037860596343495</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9945329685253804</v>
+        <v>1.030356686561599</v>
       </c>
       <c r="D17">
-        <v>1.015573686283754</v>
+        <v>1.038475348281438</v>
       </c>
       <c r="E17">
-        <v>1.002729099548759</v>
+        <v>1.030136738471521</v>
       </c>
       <c r="F17">
-        <v>1.013420681457105</v>
+        <v>1.046465773662758</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.041046243848133</v>
+        <v>1.036551418302783</v>
       </c>
       <c r="J17">
-        <v>1.022202870018654</v>
+        <v>1.036576429949538</v>
       </c>
       <c r="K17">
-        <v>1.029314053430689</v>
+        <v>1.041832584599774</v>
       </c>
       <c r="L17">
-        <v>1.016689446375214</v>
+        <v>1.033523140527904</v>
       </c>
       <c r="M17">
-        <v>1.027197419457926</v>
+        <v>1.049795541754989</v>
       </c>
       <c r="N17">
-        <v>1.023654515342388</v>
+        <v>1.038048487377046</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9955013331145348</v>
+        <v>1.030546838359964</v>
       </c>
       <c r="D18">
-        <v>1.01630211217116</v>
+        <v>1.038625740979454</v>
       </c>
       <c r="E18">
-        <v>1.0034841457753</v>
+        <v>1.030297129686203</v>
       </c>
       <c r="F18">
-        <v>1.014369063240524</v>
+        <v>1.046668554541383</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.041323378637621</v>
+        <v>1.036594875353916</v>
       </c>
       <c r="J18">
-        <v>1.022735378633285</v>
+        <v>1.036685869721969</v>
       </c>
       <c r="K18">
-        <v>1.029845260448192</v>
+        <v>1.041940670665103</v>
       </c>
       <c r="L18">
-        <v>1.017243008123309</v>
+        <v>1.033640795409096</v>
       </c>
       <c r="M18">
-        <v>1.02794429327165</v>
+        <v>1.049956211217582</v>
       </c>
       <c r="N18">
-        <v>1.024187780180332</v>
+        <v>1.038158082566506</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.99583039025621</v>
+        <v>1.030611688795648</v>
       </c>
       <c r="D19">
-        <v>1.01654972486232</v>
+        <v>1.038677033351861</v>
       </c>
       <c r="E19">
-        <v>1.0037408550189</v>
+        <v>1.030351838428442</v>
       </c>
       <c r="F19">
-        <v>1.014691463429503</v>
+        <v>1.046737720987442</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.041417403006716</v>
+        <v>1.036609675946694</v>
       </c>
       <c r="J19">
-        <v>1.022916296743692</v>
+        <v>1.036723186076547</v>
       </c>
       <c r="K19">
-        <v>1.030025729670835</v>
+        <v>1.041977523673429</v>
       </c>
       <c r="L19">
-        <v>1.017431128773308</v>
+        <v>1.033680918488872</v>
       </c>
       <c r="M19">
-        <v>1.028198121781744</v>
+        <v>1.050011005913585</v>
       </c>
       <c r="N19">
-        <v>1.024368955215207</v>
+        <v>1.038195451914587</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9943543051600224</v>
+        <v>1.030321716028858</v>
       </c>
       <c r="D20">
-        <v>1.015439334140123</v>
+        <v>1.038447690550003</v>
       </c>
       <c r="E20">
-        <v>1.00258986009741</v>
+        <v>1.030107244974677</v>
       </c>
       <c r="F20">
-        <v>1.013245768688451</v>
+        <v>1.046428484769091</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.040995042245707</v>
+        <v>1.03654341657531</v>
       </c>
       <c r="J20">
-        <v>1.022104607102224</v>
+        <v>1.036556299440207</v>
       </c>
       <c r="K20">
-        <v>1.029216027567006</v>
+        <v>1.041812702256235</v>
       </c>
       <c r="L20">
-        <v>1.01658732229385</v>
+        <v>1.033501501563041</v>
       </c>
       <c r="M20">
-        <v>1.027059638372646</v>
+        <v>1.049765992840635</v>
       </c>
       <c r="N20">
-        <v>1.023556112881346</v>
+        <v>1.038028328280082</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9894748968283287</v>
+        <v>1.029379935092354</v>
       </c>
       <c r="D21">
-        <v>1.011775244446298</v>
+        <v>1.037702938446739</v>
       </c>
       <c r="E21">
-        <v>0.9987950973047605</v>
+        <v>1.029313406111105</v>
       </c>
       <c r="F21">
-        <v>1.008476359021202</v>
+        <v>1.045424758309048</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.039588633835879</v>
+        <v>1.036326816387262</v>
       </c>
       <c r="J21">
-        <v>1.019419355940348</v>
+        <v>1.036013755642619</v>
       </c>
       <c r="K21">
-        <v>1.026536913274699</v>
+        <v>1.041276750418258</v>
       </c>
       <c r="L21">
-        <v>1.013799332949278</v>
+        <v>1.03291860812909</v>
       </c>
       <c r="M21">
-        <v>1.02329890415603</v>
+        <v>1.04897017076275</v>
       </c>
       <c r="N21">
-        <v>1.020867048354817</v>
+        <v>1.03748501400807</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9863426046513958</v>
+        <v>1.028788535559078</v>
       </c>
       <c r="D22">
-        <v>1.00942839888517</v>
+        <v>1.037235354394219</v>
       </c>
       <c r="E22">
-        <v>0.9963670787977973</v>
+        <v>1.028815338657466</v>
       </c>
       <c r="F22">
-        <v>1.005422231672969</v>
+        <v>1.044794935365773</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.038678122385832</v>
+        <v>1.036189726846731</v>
       </c>
       <c r="J22">
-        <v>1.01769416266259</v>
+        <v>1.035672659295609</v>
       </c>
       <c r="K22">
-        <v>1.024815363016101</v>
+        <v>1.040939705192272</v>
       </c>
       <c r="L22">
-        <v>1.012010849747845</v>
+        <v>1.03255244003156</v>
       </c>
       <c r="M22">
-        <v>1.020887032982794</v>
+        <v>1.048470380995077</v>
       </c>
       <c r="N22">
-        <v>1.019139405104723</v>
+        <v>1.037143433265123</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.988009377862765</v>
+        <v>1.029101977375543</v>
       </c>
       <c r="D23">
-        <v>1.010676697926676</v>
+        <v>1.037483165330666</v>
       </c>
       <c r="E23">
-        <v>0.997658318102539</v>
+        <v>1.029079273440761</v>
       </c>
       <c r="F23">
-        <v>1.007046686366209</v>
+        <v>1.045128696369043</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.039163339118548</v>
+        <v>1.036262486101428</v>
       </c>
       <c r="J23">
-        <v>1.01861230344074</v>
+        <v>1.035853478369702</v>
       </c>
       <c r="K23">
-        <v>1.025731590728819</v>
+        <v>1.041118385539897</v>
       </c>
       <c r="L23">
-        <v>1.01296241655936</v>
+        <v>1.032746521860256</v>
       </c>
       <c r="M23">
-        <v>1.02217021991714</v>
+        <v>1.048735273930346</v>
       </c>
       <c r="N23">
-        <v>1.02005884974809</v>
+        <v>1.037324509123042</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9944350562735921</v>
+        <v>1.03033751745911</v>
       </c>
       <c r="D24">
-        <v>1.015500056112216</v>
+        <v>1.03846018766261</v>
       </c>
       <c r="E24">
-        <v>1.00265279007782</v>
+        <v>1.030120571460674</v>
       </c>
       <c r="F24">
-        <v>1.013324822177988</v>
+        <v>1.046445333587837</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.04101818670074</v>
+        <v>1.036547032523433</v>
       </c>
       <c r="J24">
-        <v>1.022149019909454</v>
+        <v>1.036565395546309</v>
       </c>
       <c r="K24">
-        <v>1.029260333349913</v>
+        <v>1.041821686259071</v>
       </c>
       <c r="L24">
-        <v>1.01663347935703</v>
+        <v>1.033511279173473</v>
       </c>
       <c r="M24">
-        <v>1.027121911108775</v>
+        <v>1.049779344530006</v>
       </c>
       <c r="N24">
-        <v>1.023600588759856</v>
+        <v>1.038037437303697</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.001628401629018</v>
+        <v>1.031774440720077</v>
       </c>
       <c r="D25">
-        <v>1.020919984093815</v>
+        <v>1.039596829801183</v>
       </c>
       <c r="E25">
-        <v>1.00827581735998</v>
+        <v>1.031333452065745</v>
       </c>
       <c r="F25">
-        <v>1.020383489930076</v>
+        <v>1.04797863780388</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.04306107615789</v>
+        <v>1.036873271462434</v>
       </c>
       <c r="J25">
-        <v>1.026101087564644</v>
+        <v>1.037391591092997</v>
       </c>
       <c r="K25">
-        <v>1.033201997893521</v>
+        <v>1.042637474342081</v>
       </c>
       <c r="L25">
-        <v>1.020747006116853</v>
+        <v>1.034400084920395</v>
       </c>
       <c r="M25">
-        <v>1.03267340946896</v>
+        <v>1.050993378617811</v>
       </c>
       <c r="N25">
-        <v>1.027558268804425</v>
+        <v>1.038864806142828</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_134/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_134/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.032923005835927</v>
+        <v>1.007170795655079</v>
       </c>
       <c r="D2">
-        <v>1.040505655009929</v>
+        <v>1.025110351320956</v>
       </c>
       <c r="E2">
-        <v>1.032304413604033</v>
+        <v>1.012632072970982</v>
       </c>
       <c r="F2">
-        <v>1.049205897372537</v>
+        <v>1.025845289001308</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.037130258665913</v>
+        <v>1.044606900344468</v>
       </c>
       <c r="J2">
-        <v>1.038050560673331</v>
+        <v>1.029139124569379</v>
       </c>
       <c r="K2">
-        <v>1.043287811949982</v>
+        <v>1.036230601453991</v>
       </c>
       <c r="L2">
-        <v>1.035110029980152</v>
+        <v>1.023918183999425</v>
       </c>
       <c r="M2">
-        <v>1.05196360234141</v>
+        <v>1.03695592801318</v>
       </c>
       <c r="N2">
-        <v>1.03952471153555</v>
+        <v>1.030600620170177</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.033758375452343</v>
+        <v>1.011089878969328</v>
       </c>
       <c r="D3">
-        <v>1.041166811567473</v>
+        <v>1.028080837988051</v>
       </c>
       <c r="E3">
-        <v>1.03301145641942</v>
+        <v>1.015725383392062</v>
       </c>
       <c r="F3">
-        <v>1.050099456979084</v>
+        <v>1.029720233868579</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.037314973998913</v>
+        <v>1.045683009149162</v>
       </c>
       <c r="J3">
-        <v>1.038529007560387</v>
+        <v>1.031282721300091</v>
       </c>
       <c r="K3">
-        <v>1.043759798486559</v>
+        <v>1.038366597154222</v>
       </c>
       <c r="L3">
-        <v>1.035626089392669</v>
+        <v>1.026160932425404</v>
       </c>
       <c r="M3">
-        <v>1.052669151238456</v>
+        <v>1.039986452889839</v>
       </c>
       <c r="N3">
-        <v>1.040003837872065</v>
+        <v>1.032747261054119</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.034299558342161</v>
+        <v>1.01357954357075</v>
       </c>
       <c r="D4">
-        <v>1.041595200698994</v>
+        <v>1.029971057832326</v>
       </c>
       <c r="E4">
-        <v>1.033469892948289</v>
+        <v>1.017696212915994</v>
       </c>
       <c r="F4">
-        <v>1.050678777134007</v>
+        <v>1.032187638258969</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.037433622975956</v>
+        <v>1.046358568606886</v>
       </c>
       <c r="J4">
-        <v>1.038838576393823</v>
+        <v>1.032642148353882</v>
       </c>
       <c r="K4">
-        <v>1.04406509757265</v>
+        <v>1.039720730204008</v>
       </c>
       <c r="L4">
-        <v>1.03596027291138</v>
+        <v>1.027585650595824</v>
       </c>
       <c r="M4">
-        <v>1.053126178818025</v>
+        <v>1.041912508095623</v>
       </c>
       <c r="N4">
-        <v>1.040313846328752</v>
+        <v>1.034108618650255</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.034527223911973</v>
+        <v>1.014615468921793</v>
       </c>
       <c r="D5">
-        <v>1.041775431780621</v>
+        <v>1.030758280878686</v>
       </c>
       <c r="E5">
-        <v>1.033662841115578</v>
+        <v>1.018517601043625</v>
       </c>
       <c r="F5">
-        <v>1.050922591310489</v>
+        <v>1.033215664489343</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.037483293026659</v>
+        <v>1.046637698677409</v>
       </c>
       <c r="J5">
-        <v>1.038968713498941</v>
+        <v>1.033207206864163</v>
       </c>
       <c r="K5">
-        <v>1.044193418217483</v>
+        <v>1.040283469293911</v>
       </c>
       <c r="L5">
-        <v>1.036100824204312</v>
+        <v>1.028178426950328</v>
       </c>
       <c r="M5">
-        <v>1.053318428937666</v>
+        <v>1.042714098277163</v>
       </c>
       <c r="N5">
-        <v>1.040444168243487</v>
+        <v>1.034674479608434</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.034565458845671</v>
+        <v>1.014788785809229</v>
       </c>
       <c r="D6">
-        <v>1.04180570131338</v>
+        <v>1.030890029545763</v>
       </c>
       <c r="E6">
-        <v>1.033695250895382</v>
+        <v>1.018655102556314</v>
       </c>
       <c r="F6">
-        <v>1.050963544442911</v>
+        <v>1.033387739259475</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.037491620513276</v>
+        <v>1.046684282611306</v>
       </c>
       <c r="J6">
-        <v>1.038990563724829</v>
+        <v>1.033301709524823</v>
       </c>
       <c r="K6">
-        <v>1.044214962192209</v>
+        <v>1.040377576902682</v>
       </c>
       <c r="L6">
-        <v>1.036124426895476</v>
+        <v>1.028277599309675</v>
       </c>
       <c r="M6">
-        <v>1.053350715317075</v>
+        <v>1.042848218974335</v>
       </c>
       <c r="N6">
-        <v>1.040466049499202</v>
+        <v>1.034769116473711</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.03430259982431</v>
+        <v>1.013593427373956</v>
       </c>
       <c r="D7">
-        <v>1.041597608422205</v>
+        <v>1.029981605652107</v>
       </c>
       <c r="E7">
-        <v>1.033472470263262</v>
+        <v>1.017707216157031</v>
       </c>
       <c r="F7">
-        <v>1.050682033940361</v>
+        <v>1.032201410843687</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.037434287495544</v>
+        <v>1.046362317390837</v>
       </c>
       <c r="J7">
-        <v>1.038840315315892</v>
+        <v>1.032649723797696</v>
       </c>
       <c r="K7">
-        <v>1.044066812307455</v>
+        <v>1.03972827502922</v>
       </c>
       <c r="L7">
-        <v>1.035962150728456</v>
+        <v>1.027593595350363</v>
       </c>
       <c r="M7">
-        <v>1.053128747220874</v>
+        <v>1.041923250602529</v>
       </c>
       <c r="N7">
-        <v>1.040315587720291</v>
+        <v>1.034116204852068</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.033205188816147</v>
+        <v>1.008505053651688</v>
       </c>
       <c r="D8">
-        <v>1.040728975514282</v>
+        <v>1.026120970659983</v>
       </c>
       <c r="E8">
-        <v>1.032543167859547</v>
+        <v>1.013683969421002</v>
       </c>
       <c r="F8">
-        <v>1.049507645457044</v>
+        <v>1.027163295156883</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.037192864666845</v>
+        <v>1.04497493149763</v>
       </c>
       <c r="J8">
-        <v>1.038212257073823</v>
+        <v>1.029869386459554</v>
       </c>
       <c r="K8">
-        <v>1.043447343546072</v>
+        <v>1.036958369903264</v>
       </c>
       <c r="L8">
-        <v>1.035284380317929</v>
+        <v>1.024681718817213</v>
       </c>
       <c r="M8">
-        <v>1.052201943392514</v>
+        <v>1.037987475899705</v>
       </c>
       <c r="N8">
-        <v>1.039686637563479</v>
+        <v>1.031331919115996</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.031276406169549</v>
+        <v>0.9991684198983454</v>
       </c>
       <c r="D9">
-        <v>1.039202827242327</v>
+        <v>1.019064086968743</v>
       </c>
       <c r="E9">
-        <v>1.030912840235898</v>
+        <v>1.006348993808525</v>
       </c>
       <c r="F9">
-        <v>1.047446941243915</v>
+        <v>1.017965834111958</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036760782320044</v>
+        <v>1.042366802696649</v>
       </c>
       <c r="J9">
-        <v>1.037105453497297</v>
+        <v>1.024750577615945</v>
       </c>
       <c r="K9">
-        <v>1.042354992262529</v>
+        <v>1.031855253535458</v>
       </c>
       <c r="L9">
-        <v>1.034092102778116</v>
+        <v>1.019339896072865</v>
       </c>
       <c r="M9">
-        <v>1.05057262428407</v>
+        <v>1.03077400111908</v>
       </c>
       <c r="N9">
-        <v>1.038578262198921</v>
+        <v>1.026205840976694</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.029994006856443</v>
+        <v>0.9926713439688838</v>
       </c>
       <c r="D10">
-        <v>1.03818852128558</v>
+        <v>1.014174424581213</v>
       </c>
       <c r="E10">
-        <v>1.029830918467643</v>
+        <v>1.001279276139879</v>
       </c>
       <c r="F10">
-        <v>1.046079113820194</v>
+        <v>1.011599105123745</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.03646828817839</v>
+        <v>1.040511687479488</v>
       </c>
       <c r="J10">
-        <v>1.036367602216783</v>
+        <v>1.02117877790999</v>
       </c>
       <c r="K10">
-        <v>1.041626318711643</v>
+        <v>1.028292386210107</v>
       </c>
       <c r="L10">
-        <v>1.033298704219001</v>
+        <v>1.015625471212318</v>
       </c>
       <c r="M10">
-        <v>1.049489083248912</v>
+        <v>1.025762045316359</v>
       </c>
       <c r="N10">
-        <v>1.037839363084956</v>
+        <v>1.022628968905465</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.029439553845574</v>
+        <v>0.9897877088597621</v>
       </c>
       <c r="D11">
-        <v>1.037750079261569</v>
+        <v>1.01200984444503</v>
       </c>
       <c r="E11">
-        <v>1.029363634411482</v>
+        <v>0.9990379170230725</v>
       </c>
       <c r="F11">
-        <v>1.045488270718632</v>
+        <v>1.008781686035513</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.036340590818621</v>
+        <v>1.039679245893384</v>
       </c>
       <c r="J11">
-        <v>1.036048124442817</v>
+        <v>1.019591590001887</v>
       </c>
       <c r="K11">
-        <v>1.041310707083756</v>
+        <v>1.026708771870363</v>
       </c>
       <c r="L11">
-        <v>1.032955515699087</v>
+        <v>1.013977999655214</v>
       </c>
       <c r="M11">
-        <v>1.049020552435653</v>
+        <v>1.023539871297162</v>
       </c>
       <c r="N11">
-        <v>1.037519431615907</v>
+        <v>1.02103952700848</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.029233732297491</v>
+        <v>0.9887055130036327</v>
       </c>
       <c r="D12">
-        <v>1.037587338221161</v>
+        <v>1.011198404492371</v>
       </c>
       <c r="E12">
-        <v>1.029190245725779</v>
+        <v>0.9981981290798285</v>
       </c>
       <c r="F12">
-        <v>1.045269022847341</v>
+        <v>1.007725634426284</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.036293001956368</v>
+        <v>1.039365516735132</v>
       </c>
       <c r="J12">
-        <v>1.035929459948441</v>
+        <v>1.018995688794432</v>
       </c>
       <c r="K12">
-        <v>1.041193462483106</v>
+        <v>1.026114160193235</v>
       </c>
       <c r="L12">
-        <v>1.032828095416812</v>
+        <v>1.013359931703008</v>
       </c>
       <c r="M12">
-        <v>1.048846618497642</v>
+        <v>1.022706305263086</v>
       </c>
       <c r="N12">
-        <v>1.037400598604337</v>
+        <v>1.020442779552959</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.029277875945509</v>
+        <v>0.9889381579337639</v>
       </c>
       <c r="D13">
-        <v>1.037622241455547</v>
+        <v>1.011372801968188</v>
       </c>
       <c r="E13">
-        <v>1.029227429948159</v>
+        <v>0.9983785996685607</v>
       </c>
       <c r="F13">
-        <v>1.045316042383575</v>
+        <v>1.007952599893467</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.036303216994122</v>
+        <v>1.03943301975959</v>
       </c>
       <c r="J13">
-        <v>1.035954913694104</v>
+        <v>1.019123803155514</v>
       </c>
       <c r="K13">
-        <v>1.041218612387583</v>
+        <v>1.026241999551019</v>
       </c>
       <c r="L13">
-        <v>1.032855424979092</v>
+        <v>1.013492790645234</v>
       </c>
       <c r="M13">
-        <v>1.04888392339887</v>
+        <v>1.02288548263955</v>
       </c>
       <c r="N13">
-        <v>1.037426088497239</v>
+        <v>1.02057107585113</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.029422537972234</v>
+        <v>0.9896984834371066</v>
       </c>
       <c r="D14">
-        <v>1.037736624662741</v>
+        <v>1.011942923746583</v>
       </c>
       <c r="E14">
-        <v>1.029349298337047</v>
+        <v>0.9989686496216964</v>
       </c>
       <c r="F14">
-        <v>1.045470143171726</v>
+        <v>1.00869458962749</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.036336660294455</v>
+        <v>1.039653406065426</v>
       </c>
       <c r="J14">
-        <v>1.036038315514345</v>
+        <v>1.019542463653808</v>
       </c>
       <c r="K14">
-        <v>1.041301015853666</v>
+        <v>1.026659752848907</v>
       </c>
       <c r="L14">
-        <v>1.032944981964437</v>
+        <v>1.013927036377653</v>
       </c>
       <c r="M14">
-        <v>1.049006172967383</v>
+        <v>1.023471136822615</v>
       </c>
       <c r="N14">
-        <v>1.037509608757632</v>
+        <v>1.020990330895351</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.029511685897351</v>
+        <v>0.9901654602325402</v>
       </c>
       <c r="D15">
-        <v>1.037807115336602</v>
+        <v>1.012293202041834</v>
       </c>
       <c r="E15">
-        <v>1.029424409568688</v>
+        <v>0.9993312287839824</v>
       </c>
       <c r="F15">
-        <v>1.045565118640703</v>
+        <v>1.009150476862072</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036357245114822</v>
+        <v>1.039788589585191</v>
       </c>
       <c r="J15">
-        <v>1.03608970266661</v>
+        <v>1.019799565090578</v>
       </c>
       <c r="K15">
-        <v>1.041351785746192</v>
+        <v>1.026916290512359</v>
       </c>
       <c r="L15">
-        <v>1.033000168336744</v>
+        <v>1.014193770366031</v>
       </c>
       <c r="M15">
-        <v>1.049081508165199</v>
+        <v>1.023830886878142</v>
       </c>
       <c r="N15">
-        <v>1.037561068885547</v>
+        <v>1.021247797445652</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.03003082179508</v>
+        <v>0.9928611957166377</v>
       </c>
       <c r="D16">
-        <v>1.038217635386422</v>
+        <v>1.014317057623618</v>
       </c>
       <c r="E16">
-        <v>1.029861955911294</v>
+        <v>1.001427029145836</v>
       </c>
       <c r="F16">
-        <v>1.046118356534634</v>
+        <v>1.011784774979189</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036476741063878</v>
+        <v>1.040566307520614</v>
       </c>
       <c r="J16">
-        <v>1.03638880536442</v>
+        <v>1.021283238211789</v>
       </c>
       <c r="K16">
-        <v>1.041647263006705</v>
+        <v>1.0283966036778</v>
       </c>
       <c r="L16">
-        <v>1.033321488177851</v>
+        <v>1.015733963714683</v>
       </c>
       <c r="M16">
-        <v>1.049520191925006</v>
+        <v>1.02590839989194</v>
       </c>
       <c r="N16">
-        <v>1.037860596343495</v>
+        <v>1.022733577552875</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.030356686561599</v>
+        <v>0.9945329685253805</v>
       </c>
       <c r="D17">
-        <v>1.038475348281438</v>
+        <v>1.015573686283755</v>
       </c>
       <c r="E17">
-        <v>1.030136738471521</v>
+        <v>1.00272909954876</v>
       </c>
       <c r="F17">
-        <v>1.046465773662758</v>
+        <v>1.013420681457105</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036551418302783</v>
+        <v>1.041046243848134</v>
       </c>
       <c r="J17">
-        <v>1.036576429949538</v>
+        <v>1.022202870018654</v>
       </c>
       <c r="K17">
-        <v>1.041832584599774</v>
+        <v>1.029314053430689</v>
       </c>
       <c r="L17">
-        <v>1.033523140527904</v>
+        <v>1.016689446375215</v>
       </c>
       <c r="M17">
-        <v>1.049795541754989</v>
+        <v>1.027197419457926</v>
       </c>
       <c r="N17">
-        <v>1.038048487377046</v>
+        <v>1.023654515342388</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.030546838359964</v>
+        <v>0.9955013331145341</v>
       </c>
       <c r="D18">
-        <v>1.038625740979454</v>
+        <v>1.016302112171159</v>
       </c>
       <c r="E18">
-        <v>1.030297129686203</v>
+        <v>1.003484145775299</v>
       </c>
       <c r="F18">
-        <v>1.046668554541383</v>
+        <v>1.014369063240524</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036594875353916</v>
+        <v>1.041323378637621</v>
       </c>
       <c r="J18">
-        <v>1.036685869721969</v>
+        <v>1.022735378633285</v>
       </c>
       <c r="K18">
-        <v>1.041940670665103</v>
+        <v>1.029845260448192</v>
       </c>
       <c r="L18">
-        <v>1.033640795409096</v>
+        <v>1.017243008123309</v>
       </c>
       <c r="M18">
-        <v>1.049956211217582</v>
+        <v>1.02794429327165</v>
       </c>
       <c r="N18">
-        <v>1.038158082566506</v>
+        <v>1.024187780180331</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.030611688795648</v>
+        <v>0.9958303902562109</v>
       </c>
       <c r="D19">
-        <v>1.038677033351861</v>
+        <v>1.016549724862321</v>
       </c>
       <c r="E19">
-        <v>1.030351838428442</v>
+        <v>1.0037408550189</v>
       </c>
       <c r="F19">
-        <v>1.046737720987442</v>
+        <v>1.014691463429504</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036609675946694</v>
+        <v>1.041417403006716</v>
       </c>
       <c r="J19">
-        <v>1.036723186076547</v>
+        <v>1.022916296743693</v>
       </c>
       <c r="K19">
-        <v>1.041977523673429</v>
+        <v>1.030025729670835</v>
       </c>
       <c r="L19">
-        <v>1.033680918488872</v>
+        <v>1.017431128773308</v>
       </c>
       <c r="M19">
-        <v>1.050011005913585</v>
+        <v>1.028198121781744</v>
       </c>
       <c r="N19">
-        <v>1.038195451914587</v>
+        <v>1.024368955215208</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.030321716028858</v>
+        <v>0.994354305160021</v>
       </c>
       <c r="D20">
-        <v>1.038447690550003</v>
+        <v>1.015439334140122</v>
       </c>
       <c r="E20">
-        <v>1.030107244974677</v>
+        <v>1.002589860097408</v>
       </c>
       <c r="F20">
-        <v>1.046428484769091</v>
+        <v>1.01324576868845</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03654341657531</v>
+        <v>1.040995042245706</v>
       </c>
       <c r="J20">
-        <v>1.036556299440207</v>
+        <v>1.022104607102223</v>
       </c>
       <c r="K20">
-        <v>1.041812702256235</v>
+        <v>1.029216027567004</v>
       </c>
       <c r="L20">
-        <v>1.033501501563041</v>
+        <v>1.016587322293849</v>
       </c>
       <c r="M20">
-        <v>1.049765992840635</v>
+        <v>1.027059638372644</v>
       </c>
       <c r="N20">
-        <v>1.038028328280082</v>
+        <v>1.023556112881345</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.029379935092354</v>
+        <v>0.9894748968283276</v>
       </c>
       <c r="D21">
-        <v>1.037702938446739</v>
+        <v>1.011775244446297</v>
       </c>
       <c r="E21">
-        <v>1.029313406111105</v>
+        <v>0.9987950973047595</v>
       </c>
       <c r="F21">
-        <v>1.045424758309048</v>
+        <v>1.008476359021202</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036326816387262</v>
+        <v>1.039588633835878</v>
       </c>
       <c r="J21">
-        <v>1.036013755642619</v>
+        <v>1.019419355940347</v>
       </c>
       <c r="K21">
-        <v>1.041276750418258</v>
+        <v>1.026536913274698</v>
       </c>
       <c r="L21">
-        <v>1.03291860812909</v>
+        <v>1.013799332949277</v>
       </c>
       <c r="M21">
-        <v>1.04897017076275</v>
+        <v>1.023298904156029</v>
       </c>
       <c r="N21">
-        <v>1.03748501400807</v>
+        <v>1.020867048354816</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.028788535559078</v>
+        <v>0.9863426046513957</v>
       </c>
       <c r="D22">
-        <v>1.037235354394219</v>
+        <v>1.00942839888517</v>
       </c>
       <c r="E22">
-        <v>1.028815338657466</v>
+        <v>0.9963670787977967</v>
       </c>
       <c r="F22">
-        <v>1.044794935365773</v>
+        <v>1.005422231672969</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.036189726846731</v>
+        <v>1.038678122385832</v>
       </c>
       <c r="J22">
-        <v>1.035672659295609</v>
+        <v>1.01769416266259</v>
       </c>
       <c r="K22">
-        <v>1.040939705192272</v>
+        <v>1.0248153630161</v>
       </c>
       <c r="L22">
-        <v>1.03255244003156</v>
+        <v>1.012010849747844</v>
       </c>
       <c r="M22">
-        <v>1.048470380995077</v>
+        <v>1.020887032982793</v>
       </c>
       <c r="N22">
-        <v>1.037143433265123</v>
+        <v>1.019139405104723</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.029101977375543</v>
+        <v>0.9880093778627643</v>
       </c>
       <c r="D23">
-        <v>1.037483165330666</v>
+        <v>1.010676697926676</v>
       </c>
       <c r="E23">
-        <v>1.029079273440761</v>
+        <v>0.997658318102538</v>
       </c>
       <c r="F23">
-        <v>1.045128696369043</v>
+        <v>1.007046686366208</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.036262486101428</v>
+        <v>1.039163339118548</v>
       </c>
       <c r="J23">
-        <v>1.035853478369702</v>
+        <v>1.018612303440739</v>
       </c>
       <c r="K23">
-        <v>1.041118385539897</v>
+        <v>1.025731590728818</v>
       </c>
       <c r="L23">
-        <v>1.032746521860256</v>
+        <v>1.012962416559359</v>
       </c>
       <c r="M23">
-        <v>1.048735273930346</v>
+        <v>1.022170219917139</v>
       </c>
       <c r="N23">
-        <v>1.037324509123042</v>
+        <v>1.020058849748089</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.03033751745911</v>
+        <v>0.994435056273592</v>
       </c>
       <c r="D24">
-        <v>1.03846018766261</v>
+        <v>1.015500056112216</v>
       </c>
       <c r="E24">
-        <v>1.030120571460674</v>
+        <v>1.00265279007782</v>
       </c>
       <c r="F24">
-        <v>1.046445333587837</v>
+        <v>1.013324822177988</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036547032523433</v>
+        <v>1.04101818670074</v>
       </c>
       <c r="J24">
-        <v>1.036565395546309</v>
+        <v>1.022149019909454</v>
       </c>
       <c r="K24">
-        <v>1.041821686259071</v>
+        <v>1.029260333349913</v>
       </c>
       <c r="L24">
-        <v>1.033511279173473</v>
+        <v>1.01663347935703</v>
       </c>
       <c r="M24">
-        <v>1.049779344530006</v>
+        <v>1.027121911108775</v>
       </c>
       <c r="N24">
-        <v>1.038037437303697</v>
+        <v>1.023600588759856</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.031774440720077</v>
+        <v>1.001628401629017</v>
       </c>
       <c r="D25">
-        <v>1.039596829801183</v>
+        <v>1.020919984093814</v>
       </c>
       <c r="E25">
-        <v>1.031333452065745</v>
+        <v>1.008275817359979</v>
       </c>
       <c r="F25">
-        <v>1.04797863780388</v>
+        <v>1.020383489930075</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036873271462434</v>
+        <v>1.04306107615789</v>
       </c>
       <c r="J25">
-        <v>1.037391591092997</v>
+        <v>1.026101087564643</v>
       </c>
       <c r="K25">
-        <v>1.042637474342081</v>
+        <v>1.03320199789352</v>
       </c>
       <c r="L25">
-        <v>1.034400084920395</v>
+        <v>1.020747006116852</v>
       </c>
       <c r="M25">
-        <v>1.050993378617811</v>
+        <v>1.032673409468959</v>
       </c>
       <c r="N25">
-        <v>1.038864806142828</v>
+        <v>1.027558268804424</v>
       </c>
     </row>
   </sheetData>
